--- a/VersionRecords/Version 5.2.3 20170106/版本Bug和特性计划及评审表v5.2.3_EQ组.xlsx
+++ b/VersionRecords/Version 5.2.3 20170106/版本Bug和特性计划及评审表v5.2.3_EQ组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\VersionRecords\Version 5.2.3 20170106\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
@@ -29,12 +24,12 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="80">
   <si>
     <t>No</t>
   </si>
@@ -281,14 +276,25 @@
   </si>
   <si>
     <t>EQ-379</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="31" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -300,6 +306,7 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -307,6 +314,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -314,12 +322,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -327,6 +337,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -334,12 +345,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -347,23 +360,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -371,22 +388,26 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -464,6 +485,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1058,7 +1080,7 @@
     <cellStyle name="超链接" xfId="12" builtinId="8"/>
     <cellStyle name="甘特图" xfId="2"/>
     <cellStyle name="甘特图 2" xfId="14"/>
-    <cellStyle name="着色 4" xfId="8" builtinId="41"/>
+    <cellStyle name="强调文字颜色 4" xfId="8" builtinId="41"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1427,14 +1449,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.875" style="32" customWidth="1"/>
     <col min="2" max="3" width="9.875" style="32" customWidth="1"/>
@@ -1461,7 +1483,7 @@
     <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="30" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="30" customFormat="1" ht="27.75" thickBot="1">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -1529,7 +1551,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" s="31" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="78">
         <v>1</v>
       </c>
@@ -1567,10 +1589,18 @@
       <c r="M2" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="82"/>
+      <c r="N2" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" s="81">
+        <v>42741</v>
+      </c>
+      <c r="Q2" s="47" t="s">
+        <v>79</v>
+      </c>
       <c r="R2" s="77" t="s">
         <v>76</v>
       </c>
@@ -1580,7 +1610,7 @@
       <c r="V2" s="85"/>
       <c r="W2" s="54"/>
     </row>
-    <row r="3" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A3" s="36"/>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
@@ -1605,7 +1635,7 @@
       <c r="V3" s="55"/>
       <c r="W3" s="54"/>
     </row>
-    <row r="4" spans="1:23" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" s="31" customFormat="1" ht="16.5" customHeight="1">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -1630,7 +1660,7 @@
       <c r="V4" s="53"/>
       <c r="W4" s="54"/>
     </row>
-    <row r="5" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A5" s="36"/>
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
@@ -1655,7 +1685,7 @@
       <c r="V5" s="55"/>
       <c r="W5" s="54"/>
     </row>
-    <row r="6" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -1680,7 +1710,7 @@
       <c r="V6" s="55"/>
       <c r="W6" s="54"/>
     </row>
-    <row r="7" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A7" s="36"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
@@ -1705,7 +1735,7 @@
       <c r="V7" s="55"/>
       <c r="W7" s="54"/>
     </row>
-    <row r="8" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -1730,7 +1760,7 @@
       <c r="V8" s="55"/>
       <c r="W8" s="54"/>
     </row>
-    <row r="9" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A9" s="36"/>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
@@ -1755,7 +1785,7 @@
       <c r="V9" s="55"/>
       <c r="W9" s="54"/>
     </row>
-    <row r="10" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -1780,7 +1810,7 @@
       <c r="V10" s="55"/>
       <c r="W10" s="54"/>
     </row>
-    <row r="11" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A11" s="36"/>
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
@@ -1805,7 +1835,7 @@
       <c r="V11" s="55"/>
       <c r="W11" s="54"/>
     </row>
-    <row r="12" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -1830,7 +1860,7 @@
       <c r="V12" s="55"/>
       <c r="W12" s="54"/>
     </row>
-    <row r="13" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
@@ -1855,7 +1885,7 @@
       <c r="V13" s="55"/>
       <c r="W13" s="54"/>
     </row>
-    <row r="14" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -1880,7 +1910,7 @@
       <c r="V14" s="55"/>
       <c r="W14" s="54"/>
     </row>
-    <row r="15" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -1905,7 +1935,7 @@
       <c r="V15" s="55"/>
       <c r="W15" s="54"/>
     </row>
-    <row r="16" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -1930,7 +1960,7 @@
       <c r="V16" s="55"/>
       <c r="W16" s="54"/>
     </row>
-    <row r="17" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -1955,7 +1985,7 @@
       <c r="V17" s="57"/>
       <c r="W17" s="54"/>
     </row>
-    <row r="18" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23" ht="16.5">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -1979,7 +2009,7 @@
       <c r="U18" s="44"/>
       <c r="V18" s="45"/>
     </row>
-    <row r="19" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23" ht="16.5">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -2003,7 +2033,7 @@
       <c r="U19" s="44"/>
       <c r="V19" s="45"/>
     </row>
-    <row r="20" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23" ht="16.5">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -2027,7 +2057,7 @@
       <c r="U20" s="44"/>
       <c r="V20" s="45"/>
     </row>
-    <row r="21" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23" ht="16.5">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -2051,7 +2081,7 @@
       <c r="U21" s="44"/>
       <c r="V21" s="55"/>
     </row>
-    <row r="22" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23" ht="16.5">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -2075,7 +2105,7 @@
       <c r="U22" s="44"/>
       <c r="V22" s="55"/>
     </row>
-    <row r="23" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23" ht="16.5">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -2099,7 +2129,7 @@
       <c r="U23" s="44"/>
       <c r="V23" s="55"/>
     </row>
-    <row r="24" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23" ht="16.5">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -2123,7 +2153,7 @@
       <c r="U24" s="58"/>
       <c r="V24" s="59"/>
     </row>
-    <row r="25" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" ht="16.5">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -2147,7 +2177,7 @@
       <c r="U25" s="60"/>
       <c r="V25" s="59"/>
     </row>
-    <row r="26" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" ht="16.5">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -2171,7 +2201,7 @@
       <c r="U26" s="61"/>
       <c r="V26" s="59"/>
     </row>
-    <row r="27" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23" ht="16.5">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -2195,7 +2225,7 @@
       <c r="U27" s="60"/>
       <c r="V27" s="59"/>
     </row>
-    <row r="28" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" ht="16.5">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -2219,7 +2249,7 @@
       <c r="U28" s="60"/>
       <c r="V28" s="59"/>
     </row>
-    <row r="29" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" ht="16.5">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -2243,7 +2273,7 @@
       <c r="U29" s="56"/>
       <c r="V29" s="47"/>
     </row>
-    <row r="30" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23" ht="16.5">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -2267,7 +2297,7 @@
       <c r="U30" s="44"/>
       <c r="V30" s="55"/>
     </row>
-    <row r="31" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" ht="16.5">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -2291,7 +2321,7 @@
       <c r="U31" s="44"/>
       <c r="V31" s="55"/>
     </row>
-    <row r="32" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" ht="16.5">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
@@ -2315,7 +2345,7 @@
       <c r="U32" s="44"/>
       <c r="V32" s="55"/>
     </row>
-    <row r="33" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:22" ht="16.5">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
@@ -2339,7 +2369,7 @@
       <c r="U33" s="60"/>
       <c r="V33" s="59"/>
     </row>
-    <row r="34" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:22" ht="16.5">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -2363,7 +2393,7 @@
       <c r="U34" s="44"/>
       <c r="V34" s="53"/>
     </row>
-    <row r="35" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:22" ht="16.5">
       <c r="A35" s="36"/>
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
@@ -2387,7 +2417,7 @@
       <c r="U35" s="44"/>
       <c r="V35" s="55"/>
     </row>
-    <row r="36" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:22" ht="16.5">
       <c r="A36" s="36"/>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
@@ -2411,7 +2441,7 @@
       <c r="U36" s="44"/>
       <c r="V36" s="55"/>
     </row>
-    <row r="37" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:22" ht="16.5">
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
@@ -2435,7 +2465,7 @@
       <c r="U37" s="44"/>
       <c r="V37" s="55"/>
     </row>
-    <row r="38" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:22" ht="16.5">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
@@ -2459,7 +2489,7 @@
       <c r="U38" s="44"/>
       <c r="V38" s="55"/>
     </row>
-    <row r="39" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:22" ht="16.5">
       <c r="A39" s="36"/>
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
@@ -2483,7 +2513,7 @@
       <c r="U39" s="44"/>
       <c r="V39" s="55"/>
     </row>
-    <row r="40" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:22" ht="16.5">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
@@ -2507,7 +2537,7 @@
       <c r="U40" s="44"/>
       <c r="V40" s="55"/>
     </row>
-    <row r="41" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:22" ht="16.5">
       <c r="A41" s="36"/>
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
@@ -2531,7 +2561,7 @@
       <c r="U41" s="44"/>
       <c r="V41" s="55"/>
     </row>
-    <row r="42" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:22" ht="16.5">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
@@ -2555,7 +2585,7 @@
       <c r="U42" s="44"/>
       <c r="V42" s="55"/>
     </row>
-    <row r="43" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:22" ht="16.5">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
@@ -2579,7 +2609,7 @@
       <c r="U43" s="44"/>
       <c r="V43" s="55"/>
     </row>
-    <row r="44" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:22" ht="16.5">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
@@ -2603,7 +2633,7 @@
       <c r="U44" s="44"/>
       <c r="V44" s="55"/>
     </row>
-    <row r="45" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:22" ht="16.5">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
@@ -2627,7 +2657,7 @@
       <c r="U45" s="56"/>
       <c r="V45" s="55"/>
     </row>
-    <row r="46" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:22" ht="16.5">
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
@@ -2651,7 +2681,7 @@
       <c r="U46" s="56"/>
       <c r="V46" s="55"/>
     </row>
-    <row r="47" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:22" ht="16.5">
       <c r="A47" s="36"/>
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
@@ -2675,7 +2705,7 @@
       <c r="U47" s="44"/>
       <c r="V47" s="45"/>
     </row>
-    <row r="48" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:22" ht="16.5">
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
@@ -2699,7 +2729,7 @@
       <c r="U48" s="44"/>
       <c r="V48" s="45"/>
     </row>
-    <row r="49" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:22" ht="16.5">
       <c r="A49" s="36"/>
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
@@ -2723,7 +2753,7 @@
       <c r="U49" s="44"/>
       <c r="V49" s="45"/>
     </row>
-    <row r="50" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:22" ht="16.5">
       <c r="A50" s="36"/>
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
@@ -2747,7 +2777,7 @@
       <c r="U50" s="44"/>
       <c r="V50" s="45"/>
     </row>
-    <row r="51" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:22" ht="16.5">
       <c r="A51" s="36"/>
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
@@ -2771,7 +2801,7 @@
       <c r="U51" s="44"/>
       <c r="V51" s="45"/>
     </row>
-    <row r="52" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:22" ht="16.5">
       <c r="A52" s="36"/>
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
@@ -2795,7 +2825,7 @@
       <c r="U52" s="44"/>
       <c r="V52" s="45"/>
     </row>
-    <row r="53" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:22" ht="16.5">
       <c r="A53" s="36"/>
       <c r="B53" s="36"/>
       <c r="C53" s="36"/>
@@ -2819,7 +2849,7 @@
       <c r="U53" s="44"/>
       <c r="V53" s="45"/>
     </row>
-    <row r="54" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:22" ht="16.5">
       <c r="A54" s="44"/>
       <c r="B54" s="44"/>
       <c r="C54" s="44"/>
@@ -2843,7 +2873,7 @@
       <c r="U54" s="44"/>
       <c r="V54" s="45"/>
     </row>
-    <row r="55" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:22" ht="16.5">
       <c r="A55" s="44"/>
       <c r="B55" s="44"/>
       <c r="C55" s="44"/>
@@ -2867,7 +2897,7 @@
       <c r="U55" s="44"/>
       <c r="V55" s="45"/>
     </row>
-    <row r="56" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:22" ht="16.5">
       <c r="A56" s="44"/>
       <c r="B56" s="44"/>
       <c r="C56" s="44"/>
@@ -2891,7 +2921,7 @@
       <c r="U56" s="44"/>
       <c r="V56" s="45"/>
     </row>
-    <row r="57" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:22" ht="16.5">
       <c r="A57" s="44"/>
       <c r="B57" s="44"/>
       <c r="C57" s="44"/>
@@ -2915,7 +2945,7 @@
       <c r="U57" s="44"/>
       <c r="V57" s="45"/>
     </row>
-    <row r="58" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:22" ht="16.5">
       <c r="A58" s="44"/>
       <c r="B58" s="44"/>
       <c r="C58" s="44"/>
@@ -2939,7 +2969,7 @@
       <c r="U58" s="44"/>
       <c r="V58" s="45"/>
     </row>
-    <row r="59" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:22" ht="16.5">
       <c r="A59" s="44"/>
       <c r="B59" s="44"/>
       <c r="C59" s="44"/>
@@ -2963,7 +2993,7 @@
       <c r="U59" s="44"/>
       <c r="V59" s="45"/>
     </row>
-    <row r="60" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:22" ht="16.5">
       <c r="A60" s="44"/>
       <c r="B60" s="44"/>
       <c r="C60" s="44"/>
@@ -2987,7 +3017,7 @@
       <c r="U60" s="44"/>
       <c r="V60" s="45"/>
     </row>
-    <row r="61" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:22" ht="16.5">
       <c r="A61" s="44"/>
       <c r="B61" s="44"/>
       <c r="C61" s="44"/>
@@ -3011,7 +3041,7 @@
       <c r="U61" s="44"/>
       <c r="V61" s="45"/>
     </row>
-    <row r="62" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:22" ht="16.5">
       <c r="A62" s="44"/>
       <c r="B62" s="44"/>
       <c r="C62" s="44"/>
@@ -3035,7 +3065,7 @@
       <c r="U62" s="44"/>
       <c r="V62" s="45"/>
     </row>
-    <row r="63" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:22" ht="16.5">
       <c r="A63" s="44"/>
       <c r="B63" s="44"/>
       <c r="C63" s="44"/>
@@ -3059,7 +3089,7 @@
       <c r="U63" s="44"/>
       <c r="V63" s="45"/>
     </row>
-    <row r="64" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:22" ht="16.5">
       <c r="A64" s="44"/>
       <c r="B64" s="44"/>
       <c r="C64" s="44"/>
@@ -3083,7 +3113,7 @@
       <c r="U64" s="44"/>
       <c r="V64" s="45"/>
     </row>
-    <row r="65" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:22" ht="16.5">
       <c r="A65" s="44"/>
       <c r="B65" s="44"/>
       <c r="C65" s="44"/>
@@ -3107,7 +3137,7 @@
       <c r="U65" s="44"/>
       <c r="V65" s="45"/>
     </row>
-    <row r="66" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:22" ht="16.5">
       <c r="A66" s="44"/>
       <c r="B66" s="44"/>
       <c r="C66" s="44"/>
@@ -3131,7 +3161,7 @@
       <c r="U66" s="44"/>
       <c r="V66" s="45"/>
     </row>
-    <row r="67" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:22" ht="16.5">
       <c r="A67" s="44"/>
       <c r="B67" s="44"/>
       <c r="C67" s="44"/>
@@ -3155,7 +3185,7 @@
       <c r="U67" s="44"/>
       <c r="V67" s="45"/>
     </row>
-    <row r="68" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:22" ht="16.5">
       <c r="A68" s="44"/>
       <c r="B68" s="44"/>
       <c r="C68" s="44"/>
@@ -3179,7 +3209,7 @@
       <c r="U68" s="44"/>
       <c r="V68" s="45"/>
     </row>
-    <row r="69" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:22" ht="16.5">
       <c r="A69" s="44"/>
       <c r="B69" s="44"/>
       <c r="C69" s="44"/>
@@ -3203,7 +3233,7 @@
       <c r="U69" s="44"/>
       <c r="V69" s="45"/>
     </row>
-    <row r="70" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:22" ht="16.5">
       <c r="A70" s="44"/>
       <c r="B70" s="44"/>
       <c r="C70" s="44"/>
@@ -3227,7 +3257,7 @@
       <c r="U70" s="44"/>
       <c r="V70" s="45"/>
     </row>
-    <row r="71" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:22" ht="16.5">
       <c r="A71" s="44"/>
       <c r="B71" s="44"/>
       <c r="C71" s="44"/>
@@ -3251,7 +3281,7 @@
       <c r="U71" s="44"/>
       <c r="V71" s="45"/>
     </row>
-    <row r="72" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:22" ht="16.5">
       <c r="A72" s="44"/>
       <c r="B72" s="44"/>
       <c r="C72" s="44"/>
@@ -3275,7 +3305,7 @@
       <c r="U72" s="44"/>
       <c r="V72" s="45"/>
     </row>
-    <row r="73" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:22" ht="16.5">
       <c r="A73" s="44"/>
       <c r="B73" s="44"/>
       <c r="C73" s="44"/>
@@ -3299,7 +3329,7 @@
       <c r="U73" s="44"/>
       <c r="V73" s="45"/>
     </row>
-    <row r="74" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:22" ht="16.5">
       <c r="A74" s="44"/>
       <c r="B74" s="44"/>
       <c r="C74" s="44"/>
@@ -3323,7 +3353,7 @@
       <c r="U74" s="44"/>
       <c r="V74" s="45"/>
     </row>
-    <row r="75" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:22" ht="16.5">
       <c r="A75" s="44"/>
       <c r="B75" s="44"/>
       <c r="C75" s="44"/>
@@ -3347,7 +3377,7 @@
       <c r="U75" s="44"/>
       <c r="V75" s="45"/>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:22">
       <c r="A76" s="44"/>
       <c r="B76" s="44"/>
       <c r="C76" s="44"/>
@@ -3371,7 +3401,7 @@
       <c r="U76" s="44"/>
       <c r="V76" s="45"/>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:22">
       <c r="A77" s="44"/>
       <c r="B77" s="44"/>
       <c r="C77" s="44"/>
@@ -3395,7 +3425,7 @@
       <c r="U77" s="44"/>
       <c r="V77" s="45"/>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:22">
       <c r="A78" s="44"/>
       <c r="B78" s="44"/>
       <c r="C78" s="44"/>
@@ -3419,7 +3449,7 @@
       <c r="U78" s="44"/>
       <c r="V78" s="45"/>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:22">
       <c r="A79" s="44"/>
       <c r="B79" s="44"/>
       <c r="C79" s="44"/>
@@ -3443,7 +3473,7 @@
       <c r="U79" s="44"/>
       <c r="V79" s="45"/>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:22">
       <c r="A80" s="44"/>
       <c r="B80" s="44"/>
       <c r="C80" s="44"/>
@@ -3467,7 +3497,7 @@
       <c r="U80" s="44"/>
       <c r="V80" s="45"/>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:22">
       <c r="A81" s="44"/>
       <c r="B81" s="44"/>
       <c r="C81" s="44"/>
@@ -3491,7 +3521,7 @@
       <c r="U81" s="44"/>
       <c r="V81" s="45"/>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:22">
       <c r="A82" s="44"/>
       <c r="B82" s="44"/>
       <c r="C82" s="44"/>
@@ -3515,7 +3545,7 @@
       <c r="U82" s="44"/>
       <c r="V82" s="45"/>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:22">
       <c r="A83" s="44"/>
       <c r="B83" s="44"/>
       <c r="C83" s="44"/>
@@ -3539,7 +3569,7 @@
       <c r="U83" s="44"/>
       <c r="V83" s="45"/>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:22">
       <c r="A84" s="44"/>
       <c r="B84" s="44"/>
       <c r="C84" s="44"/>
@@ -3563,7 +3593,7 @@
       <c r="U84" s="44"/>
       <c r="V84" s="45"/>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:22">
       <c r="A85" s="44"/>
       <c r="B85" s="44"/>
       <c r="C85" s="44"/>
@@ -3587,7 +3617,7 @@
       <c r="U85" s="44"/>
       <c r="V85" s="45"/>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:22">
       <c r="A86" s="44"/>
       <c r="B86" s="44"/>
       <c r="C86" s="44"/>
@@ -3611,7 +3641,7 @@
       <c r="U86" s="44"/>
       <c r="V86" s="45"/>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:22">
       <c r="A87" s="44"/>
       <c r="B87" s="44"/>
       <c r="C87" s="44"/>
@@ -3635,7 +3665,7 @@
       <c r="U87" s="44"/>
       <c r="V87" s="45"/>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:22">
       <c r="A88" s="44"/>
       <c r="B88" s="44"/>
       <c r="C88" s="44"/>
@@ -3659,7 +3689,7 @@
       <c r="U88" s="44"/>
       <c r="V88" s="45"/>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:22">
       <c r="A89" s="44"/>
       <c r="B89" s="44"/>
       <c r="C89" s="44"/>
@@ -3683,7 +3713,7 @@
       <c r="U89" s="44"/>
       <c r="V89" s="45"/>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:22">
       <c r="A90" s="44"/>
       <c r="B90" s="44"/>
       <c r="C90" s="44"/>
@@ -3707,7 +3737,7 @@
       <c r="U90" s="44"/>
       <c r="V90" s="45"/>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:22">
       <c r="A91" s="44"/>
       <c r="B91" s="44"/>
       <c r="C91" s="44"/>
@@ -3731,7 +3761,7 @@
       <c r="U91" s="44"/>
       <c r="V91" s="45"/>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:22">
       <c r="A92" s="44"/>
       <c r="B92" s="44"/>
       <c r="C92" s="44"/>
@@ -3755,7 +3785,7 @@
       <c r="U92" s="44"/>
       <c r="V92" s="45"/>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:22">
       <c r="A93" s="44"/>
       <c r="B93" s="44"/>
       <c r="C93" s="44"/>
@@ -3779,7 +3809,7 @@
       <c r="U93" s="44"/>
       <c r="V93" s="45"/>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:22">
       <c r="A94" s="44"/>
       <c r="B94" s="44"/>
       <c r="C94" s="44"/>
@@ -3803,7 +3833,7 @@
       <c r="U94" s="44"/>
       <c r="V94" s="45"/>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:22">
       <c r="A95" s="44"/>
       <c r="B95" s="44"/>
       <c r="C95" s="44"/>
@@ -3827,7 +3857,7 @@
       <c r="U95" s="44"/>
       <c r="V95" s="45"/>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:22">
       <c r="A96" s="44"/>
       <c r="B96" s="44"/>
       <c r="C96" s="44"/>
@@ -3851,7 +3881,7 @@
       <c r="U96" s="44"/>
       <c r="V96" s="45"/>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:22">
       <c r="A97" s="44"/>
       <c r="B97" s="44"/>
       <c r="C97" s="44"/>
@@ -3875,7 +3905,7 @@
       <c r="U97" s="44"/>
       <c r="V97" s="45"/>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:22">
       <c r="A98" s="44"/>
       <c r="B98" s="44"/>
       <c r="C98" s="44"/>
@@ -3899,7 +3929,7 @@
       <c r="U98" s="44"/>
       <c r="V98" s="45"/>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:22">
       <c r="A99" s="44"/>
       <c r="B99" s="44"/>
       <c r="C99" s="44"/>
@@ -3923,7 +3953,7 @@
       <c r="U99" s="44"/>
       <c r="V99" s="45"/>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:22">
       <c r="A100" s="44"/>
       <c r="B100" s="44"/>
       <c r="C100" s="44"/>
@@ -3947,7 +3977,7 @@
       <c r="U100" s="44"/>
       <c r="V100" s="45"/>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:22">
       <c r="A101" s="44"/>
       <c r="B101" s="44"/>
       <c r="C101" s="44"/>
@@ -3971,7 +4001,7 @@
       <c r="U101" s="44"/>
       <c r="V101" s="45"/>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:22">
       <c r="A102" s="44"/>
       <c r="B102" s="44"/>
       <c r="C102" s="44"/>
@@ -3995,7 +4025,7 @@
       <c r="U102" s="44"/>
       <c r="V102" s="45"/>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:22">
       <c r="A103" s="44"/>
       <c r="B103" s="44"/>
       <c r="C103" s="44"/>
@@ -4019,7 +4049,7 @@
       <c r="U103" s="44"/>
       <c r="V103" s="45"/>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:22">
       <c r="A104" s="44"/>
       <c r="B104" s="44"/>
       <c r="C104" s="44"/>
@@ -4043,7 +4073,7 @@
       <c r="U104" s="44"/>
       <c r="V104" s="45"/>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:22">
       <c r="A105" s="44"/>
       <c r="B105" s="44"/>
       <c r="C105" s="44"/>
@@ -4067,7 +4097,7 @@
       <c r="U105" s="44"/>
       <c r="V105" s="45"/>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:22">
       <c r="A106" s="44"/>
       <c r="B106" s="44"/>
       <c r="C106" s="44"/>
@@ -4091,7 +4121,7 @@
       <c r="U106" s="44"/>
       <c r="V106" s="45"/>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:22">
       <c r="A107" s="44"/>
       <c r="B107" s="44"/>
       <c r="C107" s="44"/>
@@ -4115,7 +4145,7 @@
       <c r="U107" s="44"/>
       <c r="V107" s="45"/>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:22">
       <c r="A108" s="44"/>
       <c r="B108" s="44"/>
       <c r="C108" s="44"/>
@@ -4139,7 +4169,7 @@
       <c r="U108" s="44"/>
       <c r="V108" s="45"/>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:22">
       <c r="A109" s="44"/>
       <c r="B109" s="44"/>
       <c r="C109" s="44"/>
@@ -4163,7 +4193,7 @@
       <c r="U109" s="44"/>
       <c r="V109" s="45"/>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:22">
       <c r="A110" s="44"/>
       <c r="B110" s="44"/>
       <c r="C110" s="44"/>
@@ -4187,7 +4217,7 @@
       <c r="U110" s="44"/>
       <c r="V110" s="45"/>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:22">
       <c r="A111" s="44"/>
       <c r="B111" s="44"/>
       <c r="C111" s="44"/>
@@ -4211,7 +4241,7 @@
       <c r="U111" s="44"/>
       <c r="V111" s="45"/>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:22">
       <c r="A112" s="44"/>
       <c r="B112" s="44"/>
       <c r="C112" s="44"/>
@@ -4235,7 +4265,7 @@
       <c r="U112" s="44"/>
       <c r="V112" s="45"/>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:22">
       <c r="A113" s="44"/>
       <c r="B113" s="44"/>
       <c r="C113" s="44"/>
@@ -4259,7 +4289,7 @@
       <c r="U113" s="44"/>
       <c r="V113" s="45"/>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:22">
       <c r="A114" s="44"/>
       <c r="B114" s="44"/>
       <c r="C114" s="44"/>
@@ -4283,7 +4313,7 @@
       <c r="U114" s="44"/>
       <c r="V114" s="45"/>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:22">
       <c r="A115" s="44"/>
       <c r="B115" s="44"/>
       <c r="C115" s="44"/>
@@ -4307,7 +4337,7 @@
       <c r="U115" s="44"/>
       <c r="V115" s="45"/>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:22">
       <c r="A116" s="44"/>
       <c r="B116" s="44"/>
       <c r="C116" s="44"/>
@@ -4331,7 +4361,7 @@
       <c r="U116" s="44"/>
       <c r="V116" s="45"/>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:22">
       <c r="A117" s="44"/>
       <c r="B117" s="44"/>
       <c r="C117" s="44"/>
@@ -4355,7 +4385,7 @@
       <c r="U117" s="44"/>
       <c r="V117" s="45"/>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:22">
       <c r="A118" s="44"/>
       <c r="B118" s="44"/>
       <c r="C118" s="44"/>
@@ -4379,7 +4409,7 @@
       <c r="U118" s="44"/>
       <c r="V118" s="45"/>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:22">
       <c r="A119" s="44"/>
       <c r="B119" s="44"/>
       <c r="C119" s="44"/>
@@ -4403,7 +4433,7 @@
       <c r="U119" s="44"/>
       <c r="V119" s="45"/>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:22">
       <c r="A120" s="44"/>
       <c r="B120" s="44"/>
       <c r="C120" s="44"/>
@@ -4427,7 +4457,7 @@
       <c r="U120" s="44"/>
       <c r="V120" s="45"/>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:22">
       <c r="A121" s="44"/>
       <c r="B121" s="44"/>
       <c r="C121" s="44"/>
@@ -4451,7 +4481,7 @@
       <c r="U121" s="44"/>
       <c r="V121" s="45"/>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:22">
       <c r="A122" s="44"/>
       <c r="B122" s="44"/>
       <c r="C122" s="44"/>
@@ -4475,7 +4505,7 @@
       <c r="U122" s="44"/>
       <c r="V122" s="45"/>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:22">
       <c r="A123" s="44"/>
       <c r="B123" s="44"/>
       <c r="C123" s="44"/>
@@ -4499,7 +4529,7 @@
       <c r="U123" s="44"/>
       <c r="V123" s="45"/>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:22">
       <c r="A124" s="44"/>
       <c r="B124" s="44"/>
       <c r="C124" s="44"/>
@@ -4523,7 +4553,7 @@
       <c r="U124" s="44"/>
       <c r="V124" s="45"/>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:22">
       <c r="A125" s="44"/>
       <c r="B125" s="44"/>
       <c r="C125" s="44"/>
@@ -4547,7 +4577,7 @@
       <c r="U125" s="44"/>
       <c r="V125" s="45"/>
     </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:22">
       <c r="A126" s="44"/>
       <c r="B126" s="44"/>
       <c r="C126" s="44"/>
@@ -4571,7 +4601,7 @@
       <c r="U126" s="44"/>
       <c r="V126" s="45"/>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:22">
       <c r="A127" s="44"/>
       <c r="B127" s="44"/>
       <c r="C127" s="44"/>
@@ -4595,7 +4625,7 @@
       <c r="U127" s="44"/>
       <c r="V127" s="45"/>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:22">
       <c r="A128" s="44"/>
       <c r="B128" s="44"/>
       <c r="C128" s="44"/>
@@ -4619,7 +4649,7 @@
       <c r="U128" s="44"/>
       <c r="V128" s="45"/>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:22">
       <c r="A129" s="44"/>
       <c r="B129" s="44"/>
       <c r="C129" s="44"/>
@@ -4643,7 +4673,7 @@
       <c r="U129" s="44"/>
       <c r="V129" s="45"/>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:22">
       <c r="A130" s="44"/>
       <c r="B130" s="44"/>
       <c r="C130" s="44"/>
@@ -4667,7 +4697,7 @@
       <c r="U130" s="44"/>
       <c r="V130" s="45"/>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:22">
       <c r="A131" s="44"/>
       <c r="B131" s="44"/>
       <c r="C131" s="44"/>
@@ -4691,7 +4721,7 @@
       <c r="U131" s="44"/>
       <c r="V131" s="45"/>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:22">
       <c r="A132" s="44"/>
       <c r="B132" s="44"/>
       <c r="C132" s="44"/>
@@ -4715,7 +4745,7 @@
       <c r="U132" s="44"/>
       <c r="V132" s="45"/>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:22">
       <c r="A133" s="44"/>
       <c r="B133" s="44"/>
       <c r="C133" s="44"/>
@@ -4739,7 +4769,7 @@
       <c r="U133" s="44"/>
       <c r="V133" s="45"/>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:22">
       <c r="A134" s="44"/>
       <c r="B134" s="44"/>
       <c r="C134" s="44"/>
@@ -4763,7 +4793,7 @@
       <c r="U134" s="44"/>
       <c r="V134" s="45"/>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:22">
       <c r="A135" s="44"/>
       <c r="B135" s="44"/>
       <c r="C135" s="44"/>
@@ -4787,7 +4817,7 @@
       <c r="U135" s="44"/>
       <c r="V135" s="45"/>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:22">
       <c r="A136" s="44"/>
       <c r="B136" s="44"/>
       <c r="C136" s="44"/>
@@ -4807,7 +4837,7 @@
       <c r="Q136" s="45"/>
       <c r="V136" s="45"/>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:22">
       <c r="A137" s="44"/>
       <c r="B137" s="44"/>
       <c r="C137" s="44"/>
@@ -4827,7 +4857,7 @@
       <c r="Q137" s="45"/>
       <c r="V137" s="45"/>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:22">
       <c r="A138" s="44"/>
       <c r="B138" s="44"/>
       <c r="C138" s="44"/>
@@ -4847,7 +4877,7 @@
       <c r="Q138" s="45"/>
       <c r="V138" s="45"/>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:22">
       <c r="A139" s="44"/>
       <c r="B139" s="44"/>
       <c r="C139" s="44"/>
@@ -4867,7 +4897,7 @@
       <c r="Q139" s="45"/>
       <c r="V139" s="45"/>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:22">
       <c r="A140" s="44"/>
       <c r="B140" s="44"/>
       <c r="C140" s="44"/>
@@ -4887,7 +4917,7 @@
       <c r="Q140" s="45"/>
       <c r="V140" s="45"/>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:22">
       <c r="A141" s="44"/>
       <c r="B141" s="44"/>
       <c r="C141" s="44"/>
@@ -4907,7 +4937,7 @@
       <c r="Q141" s="45"/>
       <c r="V141" s="45"/>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:22">
       <c r="A142" s="44"/>
       <c r="B142" s="44"/>
       <c r="C142" s="44"/>
@@ -4927,7 +4957,7 @@
       <c r="Q142" s="45"/>
       <c r="V142" s="45"/>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:22">
       <c r="A143" s="44"/>
       <c r="B143" s="44"/>
       <c r="C143" s="44"/>
@@ -4947,7 +4977,7 @@
       <c r="Q143" s="45"/>
       <c r="V143" s="45"/>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:22">
       <c r="A144" s="44"/>
       <c r="B144" s="44"/>
       <c r="C144" s="44"/>
@@ -4967,7 +4997,7 @@
       <c r="Q144" s="45"/>
       <c r="V144" s="45"/>
     </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:22">
       <c r="A145" s="44"/>
       <c r="B145" s="44"/>
       <c r="C145" s="44"/>
@@ -4987,7 +5017,7 @@
       <c r="Q145" s="45"/>
       <c r="V145" s="45"/>
     </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:22">
       <c r="A146" s="44"/>
       <c r="B146" s="44"/>
       <c r="C146" s="44"/>
@@ -5007,7 +5037,7 @@
       <c r="Q146" s="45"/>
       <c r="V146" s="45"/>
     </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:22">
       <c r="A147" s="44"/>
       <c r="B147" s="44"/>
       <c r="C147" s="44"/>
@@ -5027,7 +5057,7 @@
       <c r="Q147" s="45"/>
       <c r="V147" s="45"/>
     </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:22">
       <c r="A148" s="44"/>
       <c r="B148" s="44"/>
       <c r="C148" s="44"/>
@@ -5047,7 +5077,7 @@
       <c r="Q148" s="45"/>
       <c r="V148" s="45"/>
     </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:22">
       <c r="A149" s="44"/>
       <c r="B149" s="44"/>
       <c r="C149" s="44"/>
@@ -5067,7 +5097,7 @@
       <c r="Q149" s="45"/>
       <c r="V149" s="45"/>
     </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:22">
       <c r="A150" s="44"/>
       <c r="B150" s="44"/>
       <c r="C150" s="44"/>
@@ -5087,7 +5117,7 @@
       <c r="Q150" s="45"/>
       <c r="V150" s="45"/>
     </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:22">
       <c r="A151" s="44"/>
       <c r="B151" s="44"/>
       <c r="C151" s="44"/>
@@ -5107,7 +5137,7 @@
       <c r="Q151" s="45"/>
       <c r="V151" s="45"/>
     </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:22">
       <c r="A152" s="44"/>
       <c r="B152" s="44"/>
       <c r="C152" s="44"/>
@@ -5127,7 +5157,7 @@
       <c r="Q152" s="45"/>
       <c r="V152" s="45"/>
     </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:22">
       <c r="A153" s="44"/>
       <c r="B153" s="44"/>
       <c r="C153" s="44"/>
@@ -5147,7 +5177,7 @@
       <c r="Q153" s="45"/>
       <c r="V153" s="45"/>
     </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:22">
       <c r="A154" s="44"/>
       <c r="B154" s="44"/>
       <c r="C154" s="44"/>
@@ -5167,7 +5197,7 @@
       <c r="Q154" s="45"/>
       <c r="V154" s="45"/>
     </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:22">
       <c r="A155" s="44"/>
       <c r="B155" s="44"/>
       <c r="C155" s="44"/>
@@ -5187,7 +5217,7 @@
       <c r="Q155" s="45"/>
       <c r="V155" s="45"/>
     </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:22">
       <c r="A156" s="44"/>
       <c r="B156" s="44"/>
       <c r="C156" s="44"/>
@@ -5207,7 +5237,7 @@
       <c r="Q156" s="45"/>
       <c r="V156" s="45"/>
     </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:22">
       <c r="A157" s="44"/>
       <c r="B157" s="44"/>
       <c r="C157" s="44"/>
@@ -5227,7 +5257,7 @@
       <c r="Q157" s="45"/>
       <c r="V157" s="45"/>
     </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:22">
       <c r="A158" s="44"/>
       <c r="B158" s="44"/>
       <c r="C158" s="44"/>
@@ -5247,7 +5277,7 @@
       <c r="Q158" s="45"/>
       <c r="V158" s="45"/>
     </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:22">
       <c r="A159" s="44"/>
       <c r="B159" s="44"/>
       <c r="C159" s="44"/>
@@ -5267,7 +5297,7 @@
       <c r="Q159" s="45"/>
       <c r="V159" s="45"/>
     </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:22">
       <c r="A160" s="44"/>
       <c r="B160" s="44"/>
       <c r="C160" s="44"/>
@@ -5287,7 +5317,7 @@
       <c r="Q160" s="45"/>
       <c r="V160" s="45"/>
     </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:22">
       <c r="A161" s="44"/>
       <c r="B161" s="44"/>
       <c r="C161" s="44"/>
@@ -5307,7 +5337,7 @@
       <c r="Q161" s="45"/>
       <c r="V161" s="45"/>
     </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:22">
       <c r="A162" s="44"/>
       <c r="B162" s="44"/>
       <c r="C162" s="44"/>
@@ -5327,7 +5357,7 @@
       <c r="Q162" s="45"/>
       <c r="V162" s="45"/>
     </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:22">
       <c r="A163" s="44"/>
       <c r="B163" s="44"/>
       <c r="C163" s="44"/>
@@ -5347,7 +5377,7 @@
       <c r="Q163" s="45"/>
       <c r="V163" s="45"/>
     </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:22">
       <c r="A164" s="44"/>
       <c r="B164" s="44"/>
       <c r="C164" s="44"/>
@@ -5367,7 +5397,7 @@
       <c r="Q164" s="45"/>
       <c r="V164" s="45"/>
     </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:22">
       <c r="A165" s="44"/>
       <c r="B165" s="44"/>
       <c r="C165" s="44"/>
@@ -5387,7 +5417,7 @@
       <c r="Q165" s="45"/>
       <c r="V165" s="45"/>
     </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:22">
       <c r="A166" s="44"/>
       <c r="B166" s="44"/>
       <c r="C166" s="44"/>
@@ -5407,7 +5437,7 @@
       <c r="Q166" s="45"/>
       <c r="V166" s="45"/>
     </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:22">
       <c r="A167" s="44"/>
       <c r="B167" s="44"/>
       <c r="C167" s="44"/>
@@ -5427,7 +5457,7 @@
       <c r="Q167" s="45"/>
       <c r="V167" s="45"/>
     </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:22">
       <c r="A168" s="44"/>
       <c r="B168" s="44"/>
       <c r="C168" s="44"/>
@@ -5447,7 +5477,7 @@
       <c r="Q168" s="45"/>
       <c r="V168" s="45"/>
     </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:22">
       <c r="A169" s="44"/>
       <c r="B169" s="44"/>
       <c r="C169" s="44"/>
@@ -5467,7 +5497,7 @@
       <c r="Q169" s="45"/>
       <c r="V169" s="45"/>
     </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:22">
       <c r="A170" s="44"/>
       <c r="B170" s="44"/>
       <c r="C170" s="44"/>
@@ -5521,14 +5551,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
@@ -5548,7 +5578,7 @@
     <col min="18" max="18" width="4.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="36" customHeight="1">
       <c r="A1" s="62" t="s">
         <v>53</v>
       </c>
@@ -5604,7 +5634,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="30" customHeight="1">
       <c r="A2" s="66"/>
       <c r="B2" s="67"/>
       <c r="C2" s="67"/>
@@ -5624,7 +5654,7 @@
       <c r="Q2" s="75"/>
       <c r="R2" s="75"/>
     </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" ht="30" customHeight="1">
       <c r="A3" s="66"/>
       <c r="B3" s="67"/>
       <c r="C3" s="67"/>
@@ -5644,7 +5674,7 @@
       <c r="Q3" s="75"/>
       <c r="R3" s="75"/>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="30" customHeight="1">
       <c r="A4" s="66"/>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
@@ -5671,14 +5701,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="15.25" customWidth="1"/>
@@ -5690,7 +5720,7 @@
     <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="20.25">
       <c r="A1" s="86" t="s">
         <v>52</v>
       </c>
@@ -5705,7 +5735,7 @@
       <c r="J1" s="87"/>
       <c r="K1" s="87"/>
     </row>
-    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
         <v>34</v>
       </c>
@@ -5740,7 +5770,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="17.25">
       <c r="A3" s="88"/>
       <c r="B3" s="88"/>
       <c r="C3" s="20"/>
@@ -5753,7 +5783,7 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="17.25">
       <c r="A4" s="89"/>
       <c r="B4" s="90"/>
       <c r="C4" s="20"/>
@@ -5766,7 +5796,7 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="17.25">
       <c r="A5" s="88"/>
       <c r="B5" s="88"/>
       <c r="C5" s="20"/>
@@ -5779,7 +5809,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="17.25">
       <c r="A6" s="90"/>
       <c r="B6" s="90"/>
       <c r="C6" s="20"/>
@@ -5792,7 +5822,7 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="17.25">
       <c r="A7" s="90"/>
       <c r="B7" s="90"/>
       <c r="C7" s="20"/>
@@ -5805,7 +5835,7 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="17.25">
       <c r="A8" s="90"/>
       <c r="B8" s="90"/>
       <c r="C8" s="20"/>
@@ -5818,7 +5848,7 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="17.25">
       <c r="A9" s="90"/>
       <c r="B9" s="90"/>
       <c r="C9" s="20"/>
@@ -5831,7 +5861,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="17.25">
       <c r="A10" s="89"/>
       <c r="B10" s="89"/>
       <c r="C10" s="20"/>
@@ -5844,7 +5874,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="16.5">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="20"/>
@@ -5871,14 +5901,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -5893,7 +5923,7 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="91" t="s">
         <v>21</v>
       </c>
@@ -5910,7 +5940,7 @@
       <c r="L1" s="91"/>
       <c r="M1" s="92"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="93"/>
       <c r="B2" s="93"/>
       <c r="C2" s="93"/>
@@ -5925,7 +5955,7 @@
       <c r="L2" s="93"/>
       <c r="M2" s="94"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -5966,7 +5996,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -5981,7 +6011,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -5996,7 +6026,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6011,7 +6041,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6026,7 +6056,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6041,7 +6071,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6056,7 +6086,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6071,7 +6101,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6086,7 +6116,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6101,7 +6131,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6116,7 +6146,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6131,7 +6161,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6146,7 +6176,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6185,14 +6215,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6207,7 +6237,7 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="91" t="s">
         <v>21</v>
       </c>
@@ -6224,7 +6254,7 @@
       <c r="L1" s="91"/>
       <c r="M1" s="92"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="93"/>
       <c r="B2" s="93"/>
       <c r="C2" s="93"/>
@@ -6239,7 +6269,7 @@
       <c r="L2" s="93"/>
       <c r="M2" s="94"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -6280,7 +6310,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6295,7 +6325,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6310,7 +6340,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6325,7 +6355,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6340,7 +6370,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6355,7 +6385,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6370,7 +6400,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6385,7 +6415,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6400,7 +6430,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6415,7 +6445,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6430,7 +6460,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6445,7 +6475,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6460,7 +6490,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6499,14 +6529,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6521,7 +6551,7 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="91" t="s">
         <v>21</v>
       </c>
@@ -6538,7 +6568,7 @@
       <c r="L1" s="91"/>
       <c r="M1" s="92"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="93"/>
       <c r="B2" s="93"/>
       <c r="C2" s="93"/>
@@ -6553,7 +6583,7 @@
       <c r="L2" s="93"/>
       <c r="M2" s="94"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -6594,7 +6624,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6609,7 +6639,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6624,7 +6654,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6639,7 +6669,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6654,7 +6684,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6669,7 +6699,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6684,7 +6714,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6699,7 +6729,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6714,7 +6744,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6729,7 +6759,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6744,7 +6774,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6759,7 +6789,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6774,7 +6804,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6813,14 +6843,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="2" width="10.125" customWidth="1"/>
@@ -6837,7 +6867,7 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="91" t="s">
         <v>21</v>
       </c>
@@ -6854,7 +6884,7 @@
       <c r="L1" s="91"/>
       <c r="M1" s="92"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="93"/>
       <c r="B2" s="93"/>
       <c r="C2" s="93"/>
@@ -6869,7 +6899,7 @@
       <c r="L2" s="93"/>
       <c r="M2" s="94"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -6910,7 +6940,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6925,7 +6955,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6940,7 +6970,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -6955,7 +6985,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6970,7 +7000,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6985,7 +7015,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7000,7 +7030,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7015,7 +7045,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7030,7 +7060,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7045,7 +7075,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7060,7 +7090,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7075,7 +7105,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7090,7 +7120,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7129,14 +7159,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.125" customWidth="1"/>
@@ -7147,7 +7177,7 @@
     <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -7173,7 +7203,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7183,7 +7213,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -7193,7 +7223,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -7203,7 +7233,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -7213,7 +7243,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -7223,7 +7253,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -7233,7 +7263,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -7243,7 +7273,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -7253,7 +7283,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -7263,7 +7293,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -7273,7 +7303,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -7283,7 +7313,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -7293,7 +7323,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -7303,7 +7333,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -7313,7 +7343,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -7323,7 +7353,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -7333,7 +7363,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -7343,7 +7373,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
